--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1578882.733736303</v>
+        <v>1574335.313840529</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>763237.3199885449</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10297781.5786499</v>
+        <v>10432289.46746525</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>68.11693918766126</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
-        <v>150.1450882057763</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>100.1402715198117</v>
       </c>
       <c r="W3" t="n">
-        <v>33.27294978888602</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>20.00402729331236</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>38.8312565644155</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>92.85788772760047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425918</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>308.2923356186321</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>228.6262331484154</v>
+        <v>196.3506765115044</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>144.2957156879709</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>152.0764031544146</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>290.3618821770507</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.4287756738078</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8005904082743</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>61.12497568263649</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>120.7421641270003</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0357359605303</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.73863165869152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.2707648440514</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.21702052251149</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>28.15788129210627</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>16.9870397972195</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>133.18270587735</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>191.810082285579</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="U9" t="n">
-        <v>158.7609754514608</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,7 +1277,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>31.68046530976811</v>
       </c>
       <c r="J10" t="n">
-        <v>4.138199169715264</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.994152416892092</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>193.7327745715</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>212.3182643634041</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>126.749822661279</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>72.97607332171654</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>359.5517498754658</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>8.172193132421089</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>119.456671712837</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.32106446352662</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>285.7534738152041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>233.2715658672525</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.119387955706961</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>43.34824157860942</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>66.25628701154353</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>185.404873121236</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>172.1249649038638</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2845,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>134.5665975534137</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>172.3494546525243</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>123.7971820797027</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>29.24923305751697</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>520.5803211678661</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="C2" t="n">
-        <v>520.5803211678661</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="D2" t="n">
-        <v>520.5803211678661</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="E2" t="n">
-        <v>520.5803211678661</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513812</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262261</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262261</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262261</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262261</v>
+        <v>603.4370373477798</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262261</v>
+        <v>603.4370373477798</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262261</v>
+        <v>414.0172523312949</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262261</v>
+        <v>224.5974673148101</v>
       </c>
       <c r="Y2" t="n">
-        <v>520.5803211678661</v>
+        <v>35.17768229832528</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>264.4891974026648</v>
+        <v>291.3154372147758</v>
       </c>
       <c r="C3" t="n">
-        <v>90.03616812153776</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="D3" t="n">
-        <v>90.03616812153776</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="E3" t="n">
-        <v>90.03616812153776</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F3" t="n">
-        <v>90.03616812153776</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>90.03616812153776</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153776</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264287</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264287</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264287</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264287</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099437</v>
+        <v>648.9505592513286</v>
       </c>
       <c r="W3" t="n">
-        <v>453.9089824191498</v>
+        <v>459.5307742348438</v>
       </c>
       <c r="X3" t="n">
-        <v>453.9089824191498</v>
+        <v>459.5307742348438</v>
       </c>
       <c r="Y3" t="n">
-        <v>264.4891974026648</v>
+        <v>459.5307742348438</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1256.740097465976</v>
+        <v>964.3515513733125</v>
       </c>
       <c r="C5" t="n">
-        <v>1256.740097465976</v>
+        <v>964.3515513733125</v>
       </c>
       <c r="D5" t="n">
-        <v>1256.740097465976</v>
+        <v>964.3515513733125</v>
       </c>
       <c r="E5" t="n">
-        <v>1256.740097465976</v>
+        <v>578.5632987750682</v>
       </c>
       <c r="F5" t="n">
-        <v>845.7541926763687</v>
+        <v>167.5773939854607</v>
       </c>
       <c r="G5" t="n">
-        <v>429.7231473797759</v>
+        <v>128.3539025062531</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>128.3539025062531</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>111.6705539017216</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>277.9807166746974</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>521.2049416030757</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>823.5081935709172</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>1416.413635079238</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>1621.822248332757</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>1727.902815837882</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>1703.718566540651</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>1562.810726300999</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.285829056568</v>
+        <v>1350.951391437434</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.285829056568</v>
+        <v>1350.951391437434</v>
       </c>
       <c r="V5" t="n">
-        <v>1958.285829056568</v>
+        <v>1350.951391437434</v>
       </c>
       <c r="W5" t="n">
-        <v>1646.879429441788</v>
+        <v>1350.951391437434</v>
       </c>
       <c r="X5" t="n">
-        <v>1646.879429441788</v>
+        <v>1350.951391437434</v>
       </c>
       <c r="Y5" t="n">
-        <v>1256.740097465976</v>
+        <v>1350.951391437434</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5261380428188</v>
+        <v>663.7175082377064</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0731087616919</v>
+        <v>489.2644789565794</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1386991004406</v>
+        <v>340.3300692953281</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9012440949851</v>
+        <v>181.0926142898727</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3666861218701</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>61.66788464787523</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504519</v>
+        <v>186.1577239806062</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104395</v>
+        <v>399.8722171189976</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789488</v>
+        <v>668.6238185223497</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.88538687358</v>
+        <v>958.8971200352476</v>
       </c>
       <c r="O6" t="n">
-        <v>1458.244633128146</v>
+        <v>1202.220686228318</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689047</v>
+        <v>1378.176233639508</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333487</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972664</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="S6" t="n">
-        <v>1595.273638474382</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="T6" t="n">
-        <v>1400.563316948358</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="U6" t="n">
-        <v>1172.461727081622</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="V6" t="n">
-        <v>941.5261380428188</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="W6" t="n">
-        <v>941.5261380428188</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="X6" t="n">
-        <v>941.5261380428188</v>
+        <v>1039.693144022728</v>
       </c>
       <c r="Y6" t="n">
-        <v>941.5261380428188</v>
+        <v>831.9328452577745</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="C7" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981521</v>
+        <v>64.24066662574681</v>
       </c>
       <c r="L7" t="n">
-        <v>185.7706748018941</v>
+        <v>132.1299861584114</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927332</v>
+        <v>206.9680378347969</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377461</v>
+        <v>287.8841338195363</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033659</v>
+        <v>342.3101561934713</v>
       </c>
       <c r="P7" t="n">
-        <v>520.2893470405991</v>
+        <v>369.8190495858</v>
       </c>
       <c r="Q7" t="n">
-        <v>497.4664265514521</v>
+        <v>369.8190495858</v>
       </c>
       <c r="R7" t="n">
-        <v>388.3019303235343</v>
+        <v>369.8190495858</v>
       </c>
       <c r="S7" t="n">
-        <v>189.1224447077607</v>
+        <v>369.8190495858</v>
       </c>
       <c r="T7" t="n">
-        <v>43.36919653809306</v>
+        <v>369.8190495858</v>
       </c>
       <c r="U7" t="n">
-        <v>43.36919653809306</v>
+        <v>369.8190495858</v>
       </c>
       <c r="V7" t="n">
-        <v>43.36919653809306</v>
+        <v>369.8190495858</v>
       </c>
       <c r="W7" t="n">
-        <v>43.36919653809306</v>
+        <v>369.8190495858</v>
       </c>
       <c r="X7" t="n">
-        <v>43.36919653809306</v>
+        <v>369.8190495858</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.36919653809306</v>
+        <v>216.2065211469973</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1631.077048811964</v>
+        <v>724.5626859657664</v>
       </c>
       <c r="C8" t="n">
-        <v>1631.077048811964</v>
+        <v>355.6001690253547</v>
       </c>
       <c r="D8" t="n">
-        <v>1631.077048811964</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="E8" t="n">
-        <v>1245.288796213719</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
-        <v>834.302891424112</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>418.7182695313769</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>115.8893903310998</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>54.14699065166898</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>200.4212373122961</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>470.3869336157612</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>842.2050137379733</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1287.59370699222</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1744.803063321696</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>2163.197632325226</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2485.78671621032</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2679.864937059318</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2707.349532583449</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2585.387750636984</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2585.387750636984</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2331.816300171802</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>2000.753412828231</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>1647.984757558117</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X8" t="n">
-        <v>1647.984757558117</v>
+        <v>1111.162526029888</v>
       </c>
       <c r="Y8" t="n">
-        <v>1631.077048811964</v>
+        <v>1111.162526029888</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>767.0813594113588</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0813594113588</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1469497501075</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>458.909494744652</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3749367715369</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>175.7378005654243</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>82.58929498712986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>54.14699065166898</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>122.4490829268373</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>317.3430623472204</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>625.7246102439904</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>1004.948199393864</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1408.617353449274</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1755.675971040744</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>2014.888042642829</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>2138.245251481183</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>2121.086625423386</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1986.558639688689</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1792.811081824467</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1632.446460156325</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1397.294351924582</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1143.056995196381</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1143.056995196381</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>935.2966964314269</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.32698981299753</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>58.32698981299753</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D10" t="n">
-        <v>58.32698981299753</v>
+        <v>370.1727076282633</v>
       </c>
       <c r="E10" t="n">
-        <v>58.32698981299753</v>
+        <v>222.2596140458702</v>
       </c>
       <c r="F10" t="n">
-        <v>58.32698981299753</v>
+        <v>75.36966654795984</v>
       </c>
       <c r="G10" t="n">
-        <v>58.32698981299753</v>
+        <v>75.36966654795984</v>
       </c>
       <c r="H10" t="n">
-        <v>58.32698981299753</v>
+        <v>75.36966654795984</v>
       </c>
       <c r="I10" t="n">
-        <v>58.32698981299753</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>54.14699065166898</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>126.2970999349562</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>248.5301971065621</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>380.6661427433406</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>517.5177168371848</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>623.6092066643582</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>695.326832948241</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>689.2721335372388</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>689.2721335372388</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>493.5824622528954</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>279.1195689565276</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>279.1195689565276</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>279.1195689565276</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>279.1195689565276</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>279.1195689565276</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.32698981299753</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796274</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392158</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324653</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>66.51211643218345</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218345</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218345</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001391</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794326</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450755</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180641</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919561</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943749</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064542</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614632</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007882</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200302</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128747</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018649</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957686</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874792</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.91518802128</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619166</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412852</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385036</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1383.80319137071</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2005.899154770046</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.5125670724609</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C16" t="n">
-        <v>787.576384144554</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>637.4597447322183</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>489.5466511498252</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>342.6567036519148</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2420.121033872369</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2131.044820187095</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.360331981209</v>
+        <v>1567.722549094265</v>
       </c>
       <c r="W16" t="n">
-        <v>1586.943161944248</v>
+        <v>1278.305379057304</v>
       </c>
       <c r="X16" t="n">
-        <v>1358.953611046231</v>
+        <v>1050.315828159287</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.161031902701</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608053</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251935</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128753</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957687</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874793</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333932</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021279</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127286</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304024</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4605.913419421674</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100993</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945778</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608053</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>570.9683475412853</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1061.700680385037</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1355.754362358723</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1355.754362358723</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1902.630837358917</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.214355784993</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>494.4953311667363</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>325.5591482388294</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>175.4425088264937</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>175.4425088264937</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F19" t="n">
-        <v>175.4425088264937</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.4425088264937</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264937</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156344</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213792</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005499</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368669</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.346239107599</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1957.667456821981</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.027584281371</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.343096075484</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1124.925926038523</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>896.9363751405061</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.143795996976</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1897.462430614632</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1539.196732007882</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>742.4225746200302</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>328.4394675364367</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608053</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251936</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128755</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957688</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874794</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333933</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021281</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070875</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750193</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594978</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619166</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608053</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>240.4596049779265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>731.1919378216778</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1323.210292073806</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1945.306255473142</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2492.182730473336</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2492.182730473336</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2771.982926042575</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C22" t="n">
-        <v>2603.046743114668</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>2452.930103702332</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>2305.017010119939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2305.017010119939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2305.017010119939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2305.017010119939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2305.017010119939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2383.999133009493</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2643.627859980057</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3031.389678063191</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3450.61927010765</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3865.315135899357</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4232.337592914387</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4522.868027750591</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4640.581161304026</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4638.44036538917</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4455.270175128101</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4235.591392842483</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3946.51517915721</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3691.830690951323</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W22" t="n">
-        <v>3402.413520914362</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X22" t="n">
-        <v>3174.423970016345</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y22" t="n">
-        <v>2953.631390872815</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>916.3099000622225</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>747.3737171343156</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>597.2570777219798</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>449.3439841395867</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>302.4540366416763</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6153,46 +6153,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797705</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176857</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.15766497097</v>
       </c>
       <c r="W25" t="n">
-        <v>1688.385853854706</v>
+        <v>1546.74049493401</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1318.750944035992</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1097.958364892462</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4435.461999481584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6779,25 +6779,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2824.769373306003</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2505.71655096576</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2357.803457383367</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279773</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3006.417838136243</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026075</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498399</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>1272.757518498399</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7414,16 +7414,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7505,13 +7505,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>265.0731740618515</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>255.1805474109828</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50.29152613729184</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>209.3098013303407</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>132.680971610991</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.291526137293</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.4319777332163426</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>50.29152613729178</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.06136363537659</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>208.7894017452186</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>99.26785128072531</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>40.30478226780113</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>46.45968844823085</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.482525529412982</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>764222.3289313092</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896976.4599971175</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896976.4599971172</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896976.4599971174</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>443296.2286621969</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.85156472</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.85156472</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.8515647199</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="L2" t="n">
-        <v>524645.2897985043</v>
-      </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861773</v>
+        <v>270592.3620253119</v>
       </c>
       <c r="D3" t="n">
-        <v>136000.707408514</v>
+        <v>115410.0540231934</v>
       </c>
       <c r="E3" t="n">
-        <v>147481.6015574858</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
-        <v>306241.8686975056</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744842</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487771</v>
+        <v>62913.63765881959</v>
       </c>
       <c r="L3" t="n">
-        <v>34097.03362498803</v>
+        <v>27875.253621975</v>
       </c>
       <c r="M3" t="n">
-        <v>38517.98506259161</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
-        <v>80518.2412563603</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
+        <v>206604.4229263464</v>
+      </c>
+      <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
-      <c r="D4" t="n">
-        <v>136660.5945769998</v>
-      </c>
       <c r="E4" t="n">
-        <v>14649.95482218994</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14820.16342064201</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14820.16342064201</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14820.16342064201</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26453,7 +26453,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
+        <v>76435.73471936815</v>
+      </c>
+      <c r="D5" t="n">
         <v>85199.08185587224</v>
       </c>
-      <c r="D5" t="n">
-        <v>95786.83947032585</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393202.1173548049</v>
+        <v>-393202.1173548047</v>
       </c>
       <c r="C6" t="n">
-        <v>-118235.1658191629</v>
+        <v>-19955.36925924224</v>
       </c>
       <c r="D6" t="n">
-        <v>165229.0089559444</v>
+        <v>158865.0244438209</v>
       </c>
       <c r="E6" t="n">
-        <v>206858.3317211278</v>
+        <v>-193094.5228958927</v>
       </c>
       <c r="F6" t="n">
-        <v>100537.690932734</v>
+        <v>408348.6846783725</v>
       </c>
       <c r="G6" t="n">
-        <v>406779.5596302396</v>
+        <v>408348.6846783726</v>
       </c>
       <c r="H6" t="n">
-        <v>406779.5596302393</v>
+        <v>408348.6846783725</v>
       </c>
       <c r="I6" t="n">
-        <v>397877.1504752809</v>
+        <v>408348.6846783725</v>
       </c>
       <c r="J6" t="n">
-        <v>359631.1192041849</v>
+        <v>359283.7399498277</v>
       </c>
       <c r="K6" t="n">
-        <v>317436.1070678518</v>
+        <v>345435.0470195528</v>
       </c>
       <c r="L6" t="n">
-        <v>374599.0303077418</v>
+        <v>380473.4310563975</v>
       </c>
       <c r="M6" t="n">
-        <v>370178.078870138</v>
+        <v>251202.3041267745</v>
       </c>
       <c r="N6" t="n">
-        <v>328177.8226763692</v>
+        <v>408348.6846783725</v>
       </c>
       <c r="O6" t="n">
-        <v>408696.0639327295</v>
+        <v>408348.6846783725</v>
       </c>
       <c r="P6" t="n">
-        <v>408696.0639327296</v>
+        <v>408348.6846783725</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
+        <v>758.8996292950612</v>
+      </c>
+      <c r="D3" t="n">
         <v>853.7106645376841</v>
       </c>
-      <c r="D3" t="n">
-        <v>963.6480080301573</v>
-      </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
+        <v>431.9757039594706</v>
+      </c>
+      <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
-      <c r="D4" t="n">
-        <v>676.8373831458622</v>
-      </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247793</v>
+        <v>210.4296883821567</v>
       </c>
       <c r="D3" t="n">
-        <v>109.9373434924731</v>
+        <v>94.81103524262289</v>
       </c>
       <c r="E3" t="n">
-        <v>126.128692563141</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2643481230873</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598431</v>
+        <v>244.4501167931506</v>
       </c>
       <c r="D4" t="n">
-        <v>134.722426419699</v>
+        <v>110.1392527666926</v>
       </c>
       <c r="E4" t="n">
-        <v>154.5640722564309</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
-        <v>328.7438349237134</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364165</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>244.4501167931506</v>
       </c>
       <c r="L4" t="n">
-        <v>134.722426419699</v>
+        <v>110.1392527666926</v>
       </c>
       <c r="M4" t="n">
-        <v>154.5640722564309</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237132</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>244.4501167931506</v>
       </c>
       <c r="L4" t="n">
-        <v>134.722426419699</v>
+        <v>110.1392527666926</v>
       </c>
       <c r="M4" t="n">
-        <v>154.5640722564309</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237134</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637379</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>183.0523213773691</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y2" t="n">
-        <v>236.0928504502773</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27475,13 +27475,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310518</v>
+        <v>132.6603156296136</v>
       </c>
       <c r="W3" t="n">
-        <v>218.4220333720336</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098427</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>147.2427938053155</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482798</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>373.4206281696339</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>40.94863309878087</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937517</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.330606300748</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>4.174354001009903</v>
+        <v>36.44991063792085</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>30.24193919304054</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.9111576058916</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>77.0721030463317</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>66.50825019768021</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>64.32115944363221</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>206.1375816037213</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>369.4993069973621</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>172.4862383660574</v>
       </c>
       <c r="U9" t="n">
-        <v>67.04404134535878</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27997,7 +27997,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2532534423388</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>146.7772093623003</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>103.1923173770327</v>
+        <v>77.47370013731542</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>99.15891518508496</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>8.202496150546693</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2242443065207</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29225,7 +29225,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>3.050852781085671</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>31.24454604429364</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>117.6180018428054</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>258.9373162286702</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>388.0799144520267</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>481.4474502511774</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>535.7030533968098</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>544.3712888610694</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>514.0343715191487</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>438.7164434860962</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>329.4577782634655</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>191.6431310098729</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>69.5213077489898</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2440682224868536</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.632350146030886</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>15.76506588403514</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>56.20152915062483</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>154.2212916475935</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>354.4276051721888</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>413.6002979658083</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>424.5470671468664</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>388.3776244374451</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>311.7072835872489</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>30.32018801947719</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>6.579516597378878</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.368507528236995</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>41.1547536673453</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>96.75348224635557</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>214.5197755399137</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>165.5147650514998</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>61.53307486054707</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>23.84935392391199</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>5.847259438830798</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.07464586517656348</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.873961841327263</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>39.67421170749284</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>149.3509138877694</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>328.7976688303501</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>492.7824735737332</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>611.3402332752524</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>680.2338021709562</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>691.2406962526273</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>652.7189881929293</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>557.0805552351624</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>418.3442967926297</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>243.3477555152739</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>88.27790545924508</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>16.9582679604101</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3099169473061809</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.072752319159206</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>20.01842371398497</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>71.36449870789373</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>195.8296390658266</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>334.7040444494934</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>450.0508928069145</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>525.1881643764357</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>539.0883323413236</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>493.1605046378485</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>395.8047827699716</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>264.5850153368839</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>128.6924641667445</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>38.50046522648786</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>8.354646409242587</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.136365284155211</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.737725916119955</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>15.44996314513925</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>52.25815755022559</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>122.8572222696808</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>201.8921564364821</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>258.3524512020524</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>272.3964361059672</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>265.9194576913385</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>245.6196594893916</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>210.1700508005443</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>145.5108492125538</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>78.13447619208452</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>30.28382346547231</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>7.424828914330718</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0947850499701795</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>467.4901056247186</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293309</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745725</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>439.15795510756</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.1867228707729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>303.4297552732313</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>360.9226811202607</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33499,7 +33499,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>489.3502824033309</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33976,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>77.89141170198394</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>167.9900634070462</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>245.6810352811902</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>305.3568201695371</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>314.9582252644785</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>283.936160097462</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>207.4834477308266</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>107.152088389016</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409395</v>
+        <v>27.38366498092685</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169987</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>215.8732253923146</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>271.46626404379</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>293.2053550635331</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>245.7813799930007</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>177.7328761729186</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>68.38629016872815</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850724</v>
+        <v>29.98243465554461</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563528</v>
+        <v>68.57507023501469</v>
       </c>
       <c r="M7" t="n">
-        <v>102.3944289806455</v>
+        <v>75.59399159230867</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767807</v>
+        <v>81.73343028761556</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769682</v>
+        <v>54.97578017569188</v>
       </c>
       <c r="P7" t="n">
-        <v>48.46489236084162</v>
+        <v>27.78676100235222</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.7517643036638</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>272.6926225287526</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>375.5738183052652</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>449.8875689436835</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>461.8276326560364</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>422.6207767712425</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>325.8475594798928</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>196.0386069181802</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>27.76221770114174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>68.99201239915993</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>196.8626054751344</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>311.4965130270404</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>383.0541304544174</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>407.7466202579903</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>350.564260193404</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>261.8303753556414</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.6032412508624</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>72.87889826594667</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>123.4677749208141</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>133.4706521583621</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>138.2339132261053</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>107.1631210375488</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>72.44204675139673</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>325.3560717027003</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020582</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069151</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946983</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>297.0239211855417</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.20494878475137</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>160.8335108287869</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191275</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>220.9409070342392</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>347.2162484813126</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>469.7150632237159</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1574335.313840529</v>
+        <v>1576191.467524084</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>461523.3857480695</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10432289.46746525</v>
+        <v>10415799.51776592</v>
       </c>
     </row>
     <row r="11">
@@ -676,10 +676,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>68.11693918766126</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>19.72734108435034</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>122.0580154038961</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>100.1402715198117</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>38.11163636040591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>38.8312565644155</v>
+        <v>59.68164182263415</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.212848802088</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760047</v>
+        <v>89.02792617476439</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425918</v>
+        <v>17.70198601719375</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>137.2349592593358</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>209.3058629286493</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0936371612143</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>55.84247887349083</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>41.49077643487213</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>196.3506765115044</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>33.17967084429471</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>109.5723004397517</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.0764031544146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>251.7554929949455</v>
       </c>
       <c r="D8" t="n">
-        <v>290.3618821770507</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>20.2769799447086</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>125.0721477169169</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>31.68046530976811</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>332.4423155261908</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081959</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>72.97607332171654</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>89.97676987683037</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>148.9055307001851</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>85.46111182334216</v>
       </c>
       <c r="V16" t="n">
-        <v>119.456671712837</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>34.32106446352932</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>89.97676987682981</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>200.6173698503557</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>61.5620078904921</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>43.34824157860942</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>66.25628701154353</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="26">
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>82.30974811734292</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>51.36569740310337</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>177.314903109061</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>123.7971820797027</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>17.95257707283392</v>
       </c>
     </row>
     <row r="41">
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832528</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832528</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832528</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
@@ -4348,34 +4348,34 @@
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262255</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262255</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262255</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U2" t="n">
-        <v>603.4370373477798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V2" t="n">
-        <v>603.4370373477798</v>
+        <v>730.1757415093703</v>
       </c>
       <c r="W2" t="n">
-        <v>414.0172523312949</v>
+        <v>540.7559564928855</v>
       </c>
       <c r="X2" t="n">
-        <v>224.5974673148101</v>
+        <v>540.7559564928855</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.17768229832528</v>
+        <v>351.3361714764008</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>291.3154372147758</v>
+        <v>364.227097959543</v>
       </c>
       <c r="C3" t="n">
-        <v>116.8624079336487</v>
+        <v>189.774068678416</v>
       </c>
       <c r="D3" t="n">
-        <v>116.8624079336487</v>
+        <v>189.774068678416</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
@@ -4421,40 +4421,40 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652798</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="V3" t="n">
-        <v>648.9505592513286</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="W3" t="n">
-        <v>459.5307742348438</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="X3" t="n">
-        <v>459.5307742348438</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="Y3" t="n">
-        <v>459.5307742348438</v>
+        <v>487.5180226099432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828987</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
         <v>27.03967056230176</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.3515513733125</v>
+        <v>890.1160654403117</v>
       </c>
       <c r="C5" t="n">
-        <v>964.3515513733125</v>
+        <v>890.1160654403117</v>
       </c>
       <c r="D5" t="n">
-        <v>964.3515513733125</v>
+        <v>890.1160654403117</v>
       </c>
       <c r="E5" t="n">
-        <v>578.5632987750682</v>
+        <v>504.3278128420674</v>
       </c>
       <c r="F5" t="n">
-        <v>167.5773939854607</v>
+        <v>497.382312092864</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>437.0978254033345</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>126.7818165123365</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600882</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017216</v>
+        <v>122.3145011261513</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746974</v>
+        <v>301.1352304553247</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030757</v>
+        <v>559.8799194566344</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709172</v>
+        <v>879.4526781788832</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582751</v>
+        <v>1208.810266619124</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079238</v>
+        <v>1506.478036654151</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332757</v>
+        <v>1726.029590732837</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837882</v>
+        <v>1842.730917800441</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540651</v>
+        <v>1824.85012384368</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726300999</v>
+        <v>1686.228952874654</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.951391437434</v>
+        <v>1474.808889310361</v>
       </c>
       <c r="U5" t="n">
-        <v>1350.951391437434</v>
+        <v>1221.178952783882</v>
       </c>
       <c r="V5" t="n">
-        <v>1350.951391437434</v>
+        <v>890.1160654403117</v>
       </c>
       <c r="W5" t="n">
-        <v>1350.951391437434</v>
+        <v>890.1160654403117</v>
       </c>
       <c r="X5" t="n">
-        <v>1350.951391437434</v>
+        <v>890.1160654403117</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.951391437434</v>
+        <v>890.1160654403117</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377064</v>
+        <v>456.1586251136478</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565794</v>
+        <v>281.7055958325208</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953281</v>
+        <v>281.7055958325208</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898727</v>
+        <v>281.7055958325208</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675765</v>
+        <v>135.1710378594057</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675765</v>
+        <v>135.1710378594057</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675765</v>
+        <v>78.76449354274834</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600882</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787523</v>
+        <v>68.93609211810499</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806062</v>
+        <v>201.9232653644118</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189976</v>
+        <v>427.0634725857425</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223497</v>
+        <v>709.1483434077675</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352476</v>
+        <v>1013.107806306469</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228318</v>
+        <v>1268.951536358891</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639508</v>
+        <v>1454.955619064354</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906548</v>
+        <v>1529.375226064147</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906548</v>
+        <v>1529.375226064147</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906548</v>
+        <v>1529.375226064147</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906548</v>
+        <v>1529.375226064147</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906548</v>
+        <v>1529.375226064147</v>
       </c>
       <c r="V6" t="n">
-        <v>1247.544644228261</v>
+        <v>1294.223117832404</v>
       </c>
       <c r="W6" t="n">
-        <v>1247.544644228261</v>
+        <v>1039.985761104203</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.693144022728</v>
+        <v>832.1342608986697</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577745</v>
+        <v>624.3739621337158</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600882</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600882</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600882</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600882</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600882</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600882</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600882</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600882</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600882</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574681</v>
+        <v>71.66278688941186</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584114</v>
+        <v>146.1110562813929</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347969</v>
+        <v>227.8646009517979</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195363</v>
+        <v>315.5317549640458</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934713</v>
+        <v>376.1934721167904</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858</v>
+        <v>409.0380796419518</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858</v>
+        <v>375.5232606073107</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858</v>
+        <v>375.5232606073107</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858</v>
+        <v>375.5232606073107</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858</v>
+        <v>375.5232606073107</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858</v>
+        <v>375.5232606073107</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858</v>
+        <v>375.5232606073107</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858</v>
+        <v>264.8441692540262</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858</v>
+        <v>36.85461835600882</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.2065211469973</v>
+        <v>36.85461835600882</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>724.5626859657664</v>
+        <v>1060.657767521152</v>
       </c>
       <c r="C8" t="n">
-        <v>355.6001690253547</v>
+        <v>806.35928974848</v>
       </c>
       <c r="D8" t="n">
-        <v>62.30533854348519</v>
+        <v>448.0935911417295</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>62.30533854348526</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>55.35983779428179</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232725</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711881</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>1837.396939561086</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290968</v>
+        <v>1837.396939561086</v>
       </c>
       <c r="X8" t="n">
-        <v>1111.162526029888</v>
+        <v>1837.396939561086</v>
       </c>
       <c r="Y8" t="n">
-        <v>1111.162526029888</v>
+        <v>1447.257607585274</v>
       </c>
     </row>
     <row r="9">
@@ -4859,61 +4859,61 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C9" t="n">
         <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E9" t="n">
         <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562341</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U9" t="n">
         <v>1745.745249409541</v>
@@ -4928,7 +4928,7 @@
         <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>338.6408822103606</v>
       </c>
       <c r="C10" t="n">
-        <v>520.2893470405991</v>
+        <v>169.7046992824537</v>
       </c>
       <c r="D10" t="n">
-        <v>370.1727076282633</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="E10" t="n">
-        <v>222.2596140458702</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="F10" t="n">
-        <v>75.36966654795984</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G10" t="n">
-        <v>75.36966654795984</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H10" t="n">
-        <v>75.36966654795984</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981547</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>841.9378825128757</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>240.4596049779266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>570.9683475412855</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1383.803191370709</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2005.899154770045</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311989</v>
+        <v>873.8816814720478</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7557007032921</v>
+        <v>704.9454985441409</v>
       </c>
       <c r="D13" t="n">
-        <v>482.6390612909563</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E13" t="n">
-        <v>334.7259677085632</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861983</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693327</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2337.490148271956</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2048.413934586682</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1793.729446380795</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1504.312276343835</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1276.322725445817</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>1055.530146302287</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2128.167016284654</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290469</v>
+        <v>951.4953365361202</v>
       </c>
       <c r="C16" t="n">
-        <v>699.73118040114</v>
+        <v>782.5591536082134</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>632.4425141958776</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>484.5294206134845</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.5294206134845</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.343101444868</v>
       </c>
       <c r="V16" t="n">
-        <v>1567.722549094265</v>
+        <v>1871.343101444868</v>
       </c>
       <c r="W16" t="n">
-        <v>1278.305379057304</v>
+        <v>1581.925931407907</v>
       </c>
       <c r="X16" t="n">
-        <v>1050.315828159287</v>
+        <v>1353.93638050989</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159287</v>
+        <v>1133.14380136636</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>964.7673076102598</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>795.8311246823529</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>645.7144852700171</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400712</v>
+        <v>497.801391687624</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>350.9114441897136</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>183.6972493642925</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2139.299560724894</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1884.615072519008</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1595.197902482047</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1367.20835158403</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1146.415772440499</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322607997</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413023</v>
+        <v>783.1352037073464</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>614.1990207794395</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>464.0823813671037</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>464.0823813671037</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>464.0823813671037</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>296.8681865416826</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>154.995469580113</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="V22" t="n">
-        <v>1644.59975125005</v>
+        <v>1702.982968616094</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.182581213089</v>
+        <v>1413.565798579134</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.193030315072</v>
+        <v>1185.576247681116</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.400451171542</v>
+        <v>964.7836685375861</v>
       </c>
     </row>
     <row r="23">
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622225</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343156</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219798</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395867</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>302.4540366416763</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6153,46 +6153,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797705</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832659</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832659</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176857</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.15766497097</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.74049493401</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035992</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892462</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2395.078540748843</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>2106.003314093041</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="41">
@@ -7548,19 +7548,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>50.29152613728979</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>72.4449747012147</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>127.5052245859314</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>50.29152613728908</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>200.7243397250783</v>
       </c>
       <c r="V16" t="n">
-        <v>132.680971610991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.29152613729029</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>50.47721991512411</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>50.29152613729062</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>20.24256885391692</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
-        <v>208.7894017452186</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.26785128072531</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="26">
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
     </row>
     <row r="29">
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.0397529241849</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>48.39475227997619</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.81829093850965</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>200.6320762792609</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901889.9708542901</v>
+        <v>896976.4599971176</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901889.9708542901</v>
+        <v>896976.4599971178</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901889.9708542902</v>
+        <v>896976.4599971176</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901889.9708542901</v>
+        <v>896976.4599971174</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="11">
@@ -26316,37 +26316,37 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>521741.8515647201</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>521741.8515647202</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985041</v>
+        <v>521741.8515647199</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>521741.8515647201</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253119</v>
+        <v>302369.4048679874</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231934</v>
+        <v>85329.23106956511</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>589710.8045858949</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744842</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881959</v>
+        <v>70301.90739529455</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.253621975</v>
+        <v>20609.76383352375</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>154015.6312544152</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263464</v>
+        <v>198159.2161991115</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14820.16342064201</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14820.16342064201</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14820.16342064201</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14820.16342064201</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936815</v>
+        <v>78719.83982550906</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587231</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393202.1173548047</v>
+        <v>-393202.1173548046</v>
       </c>
       <c r="C6" t="n">
-        <v>-19955.36925924224</v>
+        <v>-45571.31048082397</v>
       </c>
       <c r="D6" t="n">
-        <v>158865.0244438209</v>
+        <v>188945.8473974493</v>
       </c>
       <c r="E6" t="n">
-        <v>-193094.5228958927</v>
+        <v>-182977.1499512209</v>
       </c>
       <c r="F6" t="n">
-        <v>408348.6846783725</v>
+        <v>406733.6546346743</v>
       </c>
       <c r="G6" t="n">
-        <v>408348.6846783726</v>
+        <v>406733.6546346738</v>
       </c>
       <c r="H6" t="n">
-        <v>408348.6846783725</v>
+        <v>406733.654634674</v>
       </c>
       <c r="I6" t="n">
-        <v>408348.6846783725</v>
+        <v>397842.4125498452</v>
       </c>
       <c r="J6" t="n">
-        <v>359283.7399498277</v>
+        <v>359596.3812787492</v>
       </c>
       <c r="K6" t="n">
-        <v>345435.0470195528</v>
+        <v>338359.4186119993</v>
       </c>
       <c r="L6" t="n">
-        <v>380473.4310563975</v>
+        <v>388051.56217377</v>
       </c>
       <c r="M6" t="n">
-        <v>251202.3041267745</v>
+        <v>254645.6947528785</v>
       </c>
       <c r="N6" t="n">
-        <v>408348.6846783725</v>
+        <v>408661.3260072938</v>
       </c>
       <c r="O6" t="n">
-        <v>408348.6846783725</v>
+        <v>408661.3260072938</v>
       </c>
       <c r="P6" t="n">
-        <v>408348.6846783725</v>
+        <v>408661.3260072938</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950612</v>
+        <v>783.6114621533188</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594706</v>
+        <v>460.6827294501103</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261641</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26962,16 +26962,16 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821567</v>
+        <v>235.1415212404142</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262289</v>
+        <v>70.09920238436609</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>504.3303841787011</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931506</v>
+        <v>273.1571422837903</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666926</v>
+        <v>81.43222727605385</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>618.0303335998428</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931506</v>
+        <v>273.1571422837903</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666926</v>
+        <v>81.43222727605385</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>618.0303335998428</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931506</v>
+        <v>273.1571422837903</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666926</v>
+        <v>81.43222727605385</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>618.0303335998428</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27435,19 +27435,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>183.0523213773691</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>308.0249173857845</v>
       </c>
       <c r="W2" t="n">
         <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>44.4751682459712</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,13 +27475,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681313</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>132.6603156296136</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>141.7203438215314</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482798</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27563,7 +27563,7 @@
         <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>373.4206281696339</v>
+        <v>352.4708988597237</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>135.6580132634846</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>40.11454612091499</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937517</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.330606300748</v>
+        <v>41.03041096167729</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>140.3756754225236</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>193.3709651691716</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>225.8304936665191</v>
       </c>
       <c r="V6" t="n">
-        <v>36.44991063792085</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>166.5779095086741</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>149.6636969338995</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>112.9556107173701</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304054</v>
+        <v>27.09138305961973</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.9111576058916</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>113.7566324950332</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>199.3906443820885</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>221.9079273428379</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2419528192299</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>176.9506978968393</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.50825019768021</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>113.5173987760621</v>
       </c>
       <c r="D8" t="n">
-        <v>64.32115944363221</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>172.4862383660574</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>205.54359402336</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>23.54332530129541</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28031,10 +28031,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>77.47370013731542</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29225,7 +29225,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085671</v>
+        <v>3.150196832777159</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429364</v>
+        <v>32.26195331367909</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>121.4479633956415</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286702</v>
+        <v>267.3690184359206</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520267</v>
+        <v>400.7168503673778</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511774</v>
+        <v>497.1246866884819</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968098</v>
+        <v>553.1469996133827</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610694</v>
+        <v>562.0974963645108</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191487</v>
+        <v>530.772726608583</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860962</v>
+        <v>453.0022422993968</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634655</v>
+        <v>340.1858182255646</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098729</v>
+        <v>197.8835517969384</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489898</v>
+        <v>71.78511032690957</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.78998663548202</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868536</v>
+        <v>0.2520157466221726</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.685503899726007</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403514</v>
+        <v>16.27841924209065</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062483</v>
+        <v>58.03160356512787</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>159.2431557192891</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431663</v>
+        <v>272.1719170009315</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721888</v>
+        <v>365.9687305084911</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658083</v>
+        <v>427.0682468735587</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468664</v>
+        <v>438.3714725870722</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374451</v>
+        <v>401.0242545984065</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872489</v>
+        <v>321.8573192380302</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547497</v>
+        <v>215.153094287832</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>104.6490930022867</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947719</v>
+        <v>31.30749568131418</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378878</v>
+        <v>6.793763525649998</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1108884144556584</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.413069849784673</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.5634755735401</v>
       </c>
       <c r="I7" t="n">
-        <v>41.1547536673453</v>
+        <v>42.49486420988818</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635557</v>
+        <v>99.90403837977638</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>164.173024365892</v>
       </c>
       <c r="L7" t="n">
-        <v>203.459746516253</v>
+        <v>210.0849483943504</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399137</v>
+        <v>221.5051219985192</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>216.2382252856856</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275347</v>
+        <v>199.7310002222919</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514998</v>
+        <v>170.9043752866844</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>118.3253307851511</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054707</v>
+        <v>63.53675888213629</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391199</v>
+        <v>24.62595365488379</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830798</v>
+        <v>6.037662085443602</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656348</v>
+        <v>0.07707653726098226</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848226</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745726</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>467.4901056247174</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>759.721473092764</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426206</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>571.4938338238237</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198394</v>
+        <v>86.32311390923434</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070462</v>
+        <v>180.6269993223973</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811902</v>
+        <v>261.3582717184947</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695371</v>
+        <v>322.80076638611</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644785</v>
+        <v>332.6844327679199</v>
       </c>
       <c r="O5" t="n">
-        <v>283.936160097462</v>
+        <v>300.6745151868962</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308266</v>
+        <v>221.7692465441272</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.152088389016</v>
+        <v>117.8801283511151</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092685</v>
+        <v>32.4055290526224</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457304</v>
+        <v>134.3304780265725</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923146</v>
+        <v>227.4143507286169</v>
       </c>
       <c r="M6" t="n">
-        <v>271.46626404379</v>
+        <v>284.9342129515404</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635331</v>
+        <v>307.0297605037389</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930007</v>
+        <v>258.428010153962</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729186</v>
+        <v>187.8829118236999</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872815</v>
+        <v>75.17132020181049</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554461</v>
+        <v>35.15976619535661</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501469</v>
+        <v>75.20027211311216</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230867</v>
+        <v>82.57933805091417</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761556</v>
+        <v>88.55268082045245</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569188</v>
+        <v>61.27446177044908</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235222</v>
+        <v>33.17637123753678</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104636</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946984</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>325.3560717026991</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>628.3797610094307</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981762</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066055</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>428.8975893793793</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191275</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
